--- a/LCSOL.xlsx
+++ b/LCSOL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Référence tiers</t>
   </si>
@@ -330,6 +330,27 @@
   </si>
   <si>
     <t>RUE GILLES DEMARTEAU 8</t>
+  </si>
+  <si>
+    <t>BE4000</t>
+  </si>
+  <si>
+    <t>Liège</t>
+  </si>
+  <si>
+    <t>STREUVEG</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>STREUVE GHISLAINE NOELLA</t>
+  </si>
+  <si>
+    <t>C/O ME THIRY-SIMONIS</t>
+  </si>
+  <si>
+    <t>RUE DU MONT SAINT MARTIN 74</t>
   </si>
   <si>
     <t>BE4000</t>
@@ -625,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
@@ -799,7 +820,7 @@
         <v>61</v>
       </c>
       <c r="E9" s="5">
-        <v>197.57</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>62</v>
@@ -1002,7 +1023,7 @@
         <v>110</v>
       </c>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>224.93</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>111</v>
@@ -1060,7 +1081,7 @@
         <v>124</v>
       </c>
       <c r="E18" s="5">
-        <v>90.41</v>
+        <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>125</v>
@@ -1089,7 +1110,7 @@
         <v>131</v>
       </c>
       <c r="E19" s="5">
-        <v>128.97</v>
+        <v>90.41</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>132</v>
@@ -1118,7 +1139,7 @@
         <v>138</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>128.97</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>139</v>
@@ -1147,7 +1168,7 @@
         <v>145</v>
       </c>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>-98.12</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>146</v>
@@ -1160,6 +1181,35 @@
       </c>
       <c r="I21" s="4" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="5">
+        <v>-90.41</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v/>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
